--- a/moustache_board/production/pixel32_BOM.xlsx
+++ b/moustache_board/production/pixel32_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\PIXEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\PIXEL\moustache_board\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
   <si>
     <t>Qty</t>
   </si>
@@ -87,18 +87,12 @@
     <t>10 uF</t>
   </si>
   <si>
-    <t>C5, C101, C201, C301</t>
-  </si>
-  <si>
     <t>CL32B106KBJNNNE</t>
   </si>
   <si>
     <t>100 nF</t>
   </si>
   <si>
-    <t>C6, C13, C17, C18, C21, C23, C24, C26, C103, C203, C303</t>
-  </si>
-  <si>
     <t>GRM188R71H104KA93D</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>4.7 uF</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C16</t>
-  </si>
-  <si>
     <t>GRM188R60J475KE19D</t>
   </si>
   <si>
@@ -544,6 +535,27 @@
   </si>
   <si>
     <t>ST3485EBD</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>C13, C17, C18, C21, C23, C24, C26, C103, C203, C303</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C3, C4, C16</t>
+  </si>
+  <si>
+    <t>C101, C201, C301</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1048,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1049,6 +1061,12 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1177,8 +1195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K34"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Qty" dataDxfId="10"/>
     <tableColumn id="2" name="Value" dataDxfId="9"/>
@@ -1493,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,22 +1548,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1559,16 +1577,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1590,16 +1608,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1607,30 +1625,30 @@
         <v>2496827</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>11</v>
+      <c r="A4" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1638,515 +1656,509 @@
         <v>2496834</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>2496917</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J5" s="6">
+        <v>499687</v>
+      </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
-        <v>1735541</v>
+        <v>2496917</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <v>2496930</v>
+        <v>1735541</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>2449143</v>
+        <v>2496930</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>3</v>
+      <c r="A9" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>2328120</v>
-      </c>
-      <c r="K9" t="s">
-        <v>167</v>
+        <v>2449143</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>2302996</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>2328120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>2303059</v>
-      </c>
-      <c r="K11" t="s">
-        <v>168</v>
+        <v>2302996</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>2303067</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>2303059</v>
+      </c>
+      <c r="K12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
-        <v>2303145</v>
+        <v>2303067</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>2303159</v>
-      </c>
-      <c r="K14" t="s">
-        <v>170</v>
+        <v>2303145</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>2008341</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>171</v>
+        <v>2303159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <v>2303232</v>
+        <v>2008341</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>161</v>
+      <c r="A17" s="2">
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>164</v>
+      <c r="J17" s="2">
+        <v>2303232</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>2321730</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="K19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>8980699057</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="2">
         <v>1828030</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="2">
-        <v>8596067027</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1712841</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2154,104 +2166,104 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2">
-        <v>8598509892</v>
+        <v>8596067027</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
-        <v>2293494</v>
+        <v>1712841</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8598509892</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2293494</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="J23" s="2">
         <v>9555862</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="2">
-        <v>9000048448</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2059033</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -2259,344 +2271,379 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H24" s="2">
-        <v>8023193826</v>
+        <v>9000048448</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J24" s="2">
-        <v>1749366</v>
+        <v>2059033</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2">
-        <v>9000095041</v>
+        <v>8023193826</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="J25" s="2">
-        <v>1831088</v>
+        <v>1749366</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>9000095041</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1831088</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="H28" s="2">
+        <v>9000204261</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="2">
-        <v>9000204261</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="J28" s="2">
         <v>2580779</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="2">
-        <v>9000250493</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2432085</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="2">
+        <v>9000250493</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2432085</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="2">
+        <v>9000220421</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="2">
-        <v>9000220421</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="J30" s="2">
         <v>2253266</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="2">
-        <v>9000014391</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2101847</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9000014391</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="J31" s="2">
-        <v>2112605</v>
+        <v>2101847</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="2">
-        <v>9000325604</v>
+        <v>91</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J32" s="2">
-        <v>9491864</v>
+        <v>2112605</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9000325604</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9491864</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="D27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
